--- a/data/Fuel Consumption - Wikipedia.xlsx
+++ b/data/Fuel Consumption - Wikipedia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malcolm\Documents\GitHub\creds2\LDT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE0585-549E-4AD7-8DC2-5B1178A80208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556B96F-8048-4B07-A1EC-C6E270D0B9B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C290B58C-01FA-4D98-A9C1-CC1C9175AF2C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="382">
   <si>
     <t>Model</t>
   </si>
@@ -1234,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1246,6 +1246,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1563,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037F5F14-2D40-42B9-8E2E-5EF20A498CBC}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I117" sqref="I2:I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1576,8 +1577,8 @@
     <col min="5" max="5" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1632,6 +1633,9 @@
       <c r="H2" s="4">
         <v>4.2300000000000004</v>
       </c>
+      <c r="I2" s="5">
+        <v>5.95</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1655,6 +1659,9 @@
       <c r="H3" s="4">
         <v>4.34</v>
       </c>
+      <c r="I3" s="5">
+        <v>5.47</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1678,6 +1685,9 @@
       <c r="H4" s="4">
         <v>1.26</v>
       </c>
+      <c r="I4" s="5">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1701,6 +1711,9 @@
       <c r="H5" s="4">
         <v>1.42</v>
       </c>
+      <c r="I5" s="5">
+        <v>2.5299999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1724,6 +1737,9 @@
       <c r="H6" s="4">
         <v>1</v>
       </c>
+      <c r="I6" s="5">
+        <v>6.57</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1747,6 +1763,9 @@
       <c r="H7" s="4">
         <v>2.21</v>
       </c>
+      <c r="I7" s="5">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1770,6 +1789,9 @@
       <c r="H8" s="4">
         <v>2.1800000000000002</v>
       </c>
+      <c r="I8" s="5">
+        <v>5.43</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1793,6 +1815,9 @@
       <c r="H9" s="4">
         <v>2.95</v>
       </c>
+      <c r="I9" s="5">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1816,6 +1841,9 @@
       <c r="H10" s="4">
         <v>3.47</v>
       </c>
+      <c r="I10" s="5">
+        <v>4.91</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1839,6 +1867,9 @@
       <c r="H11" s="4">
         <v>2.16</v>
       </c>
+      <c r="I11" s="5">
+        <v>3.46</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1862,6 +1893,9 @@
       <c r="H12" s="4">
         <v>0.94</v>
       </c>
+      <c r="I12" s="5">
+        <v>6.22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1885,6 +1919,9 @@
       <c r="H13" s="4">
         <v>1.22</v>
       </c>
+      <c r="I13" s="5">
+        <v>4.76</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1908,6 +1945,9 @@
       <c r="H14" s="4">
         <v>0.92</v>
       </c>
+      <c r="I14" s="5">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1931,6 +1971,9 @@
       <c r="H15" s="4">
         <v>1.64</v>
       </c>
+      <c r="I15" s="5">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1954,8 +1997,11 @@
       <c r="H16" s="4">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="5">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1977,8 +2023,11 @@
       <c r="H17" s="4">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="5">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -2000,8 +2049,11 @@
       <c r="H18" s="4">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="5">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -2023,8 +2075,11 @@
       <c r="H19" s="4">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="5">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2049,8 +2104,11 @@
       <c r="H20" s="4">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="5">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -2075,8 +2133,11 @@
       <c r="H21" s="4">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="5">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2101,8 +2162,11 @@
       <c r="H22" s="4">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="5">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="H23" s="4">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="5">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2153,8 +2220,11 @@
       <c r="H24" s="4">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="5">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2179,8 +2249,11 @@
       <c r="H25" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="5">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -2205,8 +2278,11 @@
       <c r="H26" s="4">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="5">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="H27" s="4">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="5">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -2257,8 +2336,11 @@
       <c r="H28" s="4">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="5">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2283,8 +2365,11 @@
       <c r="H29" s="4">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="5">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>89</v>
       </c>
@@ -2309,8 +2394,11 @@
       <c r="H30" s="4">
         <v>3.39</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="5">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2335,8 +2423,11 @@
       <c r="H31" s="4">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="5">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2361,8 +2452,11 @@
       <c r="H32" s="4">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2387,8 +2481,11 @@
       <c r="H33" s="4">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="5">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2413,8 +2510,11 @@
       <c r="H34" s="4">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>105</v>
       </c>
@@ -2439,8 +2539,11 @@
       <c r="H35" s="4">
         <v>4.68</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="5">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
@@ -2465,8 +2568,11 @@
       <c r="H36" s="4">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="5">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -2491,8 +2597,11 @@
       <c r="H37" s="4">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="5">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -2517,8 +2626,11 @@
       <c r="H38" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="5">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -2543,8 +2655,11 @@
       <c r="H39" s="4">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -2569,8 +2684,11 @@
       <c r="H40" s="4">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="5">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>123</v>
       </c>
@@ -2595,8 +2713,11 @@
       <c r="H41" s="4">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="5">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
@@ -2621,8 +2742,11 @@
       <c r="H42" s="4">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="5">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>129</v>
       </c>
@@ -2647,8 +2771,11 @@
       <c r="H43" s="4">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="5">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>132</v>
       </c>
@@ -2673,8 +2800,11 @@
       <c r="H44" s="4">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="5">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>135</v>
       </c>
@@ -2699,8 +2829,11 @@
       <c r="H45" s="4">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="5">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -2725,8 +2858,11 @@
       <c r="H46" s="4">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="5">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
@@ -2751,8 +2887,11 @@
       <c r="H47" s="4">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="5">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -2777,8 +2916,11 @@
       <c r="H48" s="4">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="5">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2803,8 +2945,11 @@
       <c r="H49" s="4">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -2829,8 +2974,11 @@
       <c r="H50" s="4">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>151</v>
       </c>
@@ -2855,8 +3003,11 @@
       <c r="H51" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="5">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>155</v>
       </c>
@@ -2881,8 +3032,11 @@
       <c r="H52" s="4">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="5">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>159</v>
       </c>
@@ -2907,8 +3061,11 @@
       <c r="H53" s="4">
         <v>3.24</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="5">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
@@ -2933,8 +3090,11 @@
       <c r="H54" s="4">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="5">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>166</v>
       </c>
@@ -2959,8 +3119,11 @@
       <c r="H55" s="4">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>170</v>
       </c>
@@ -2985,8 +3148,11 @@
       <c r="H56" s="4">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>174</v>
       </c>
@@ -3011,8 +3177,11 @@
       <c r="H57" s="4">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="5">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
@@ -3037,8 +3206,11 @@
       <c r="H58" s="4">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="5">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>50</v>
       </c>
@@ -3063,8 +3235,11 @@
       <c r="H59" s="4">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="5">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>181</v>
       </c>
@@ -3089,8 +3264,11 @@
       <c r="H60" s="4">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="5">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>53</v>
       </c>
@@ -3115,8 +3293,11 @@
       <c r="H61" s="4">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>189</v>
       </c>
@@ -3138,8 +3319,11 @@
       <c r="H62" s="4">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="5">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>192</v>
       </c>
@@ -3161,8 +3345,11 @@
       <c r="H63" s="4">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="5">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>195</v>
       </c>
@@ -3184,8 +3371,11 @@
       <c r="H64" s="4">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="5">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>198</v>
       </c>
@@ -3207,8 +3397,11 @@
       <c r="H65" s="4">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>201</v>
       </c>
@@ -3230,8 +3423,11 @@
       <c r="H66" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="5">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>204</v>
       </c>
@@ -3253,8 +3449,11 @@
       <c r="H67" s="4">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="5">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>207</v>
       </c>
@@ -3276,8 +3475,11 @@
       <c r="H68" s="4">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="5">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
@@ -3299,8 +3501,11 @@
       <c r="H69" s="4">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="5">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>86</v>
       </c>
@@ -3322,8 +3527,11 @@
       <c r="H70" s="4">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="5">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>86</v>
       </c>
@@ -3345,8 +3553,11 @@
       <c r="H71" s="4">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="5">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>216</v>
       </c>
@@ -3368,8 +3579,11 @@
       <c r="H72" s="4">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="5">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -3391,8 +3605,11 @@
       <c r="H73" s="4">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="5">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -3414,8 +3631,11 @@
       <c r="H74" s="4">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>223</v>
       </c>
@@ -3437,8 +3657,11 @@
       <c r="H75" s="4">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>226</v>
       </c>
@@ -3460,8 +3683,11 @@
       <c r="H76" s="4">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="5">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>100</v>
       </c>
@@ -3483,8 +3709,11 @@
       <c r="H77" s="4">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="5">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>231</v>
       </c>
@@ -3506,8 +3735,11 @@
       <c r="H78" s="4">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="5">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>233</v>
       </c>
@@ -3529,8 +3761,11 @@
       <c r="H79" s="4">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="5">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>105</v>
       </c>
@@ -3552,8 +3787,11 @@
       <c r="H80" s="4">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="5">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>105</v>
       </c>
@@ -3575,8 +3813,11 @@
       <c r="H81" s="4">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="5">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>108</v>
       </c>
@@ -3598,8 +3839,11 @@
       <c r="H82" s="4">
         <v>4.68</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>132</v>
       </c>
@@ -3621,8 +3865,11 @@
       <c r="H83" s="4">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="5">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>135</v>
       </c>
@@ -3644,8 +3891,11 @@
       <c r="H84" s="4">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>135</v>
       </c>
@@ -3667,8 +3917,11 @@
       <c r="H85" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="5">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>248</v>
       </c>
@@ -3690,8 +3943,11 @@
       <c r="H86" s="4">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="5">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>195</v>
       </c>
@@ -3716,8 +3972,11 @@
       <c r="H87" s="4">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>254</v>
       </c>
@@ -3742,8 +4001,11 @@
       <c r="H88" s="4">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>201</v>
       </c>
@@ -3768,8 +4030,11 @@
       <c r="H89" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="5">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>261</v>
       </c>
@@ -3794,8 +4059,11 @@
       <c r="H90" s="4">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="5">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>264</v>
       </c>
@@ -3820,8 +4088,11 @@
       <c r="H91" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="5">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>267</v>
       </c>
@@ -3846,8 +4117,11 @@
       <c r="H92" s="4">
         <v>6.81</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="5">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>226</v>
       </c>
@@ -3872,8 +4146,11 @@
       <c r="H93" s="4">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="5">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>233</v>
       </c>
@@ -3898,8 +4175,11 @@
       <c r="H94" s="4">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>273</v>
       </c>
@@ -3924,8 +4204,11 @@
       <c r="H95" s="4">
         <v>10.77</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="5">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>276</v>
       </c>
@@ -3950,8 +4233,11 @@
       <c r="H96" s="4">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="5">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>279</v>
       </c>
@@ -3976,8 +4262,11 @@
       <c r="H97" s="4">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>282</v>
       </c>
@@ -4002,8 +4291,11 @@
       <c r="H98" s="4">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="5">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
@@ -4028,8 +4320,11 @@
       <c r="H99" s="4">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="5">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>282</v>
       </c>
@@ -4054,8 +4349,11 @@
       <c r="H100" s="4">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="5">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>289</v>
       </c>
@@ -4080,8 +4378,11 @@
       <c r="H101" s="4">
         <v>5.38</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="5">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>289</v>
       </c>
@@ -4106,8 +4407,11 @@
       <c r="H102" s="4">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="5">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>289</v>
       </c>
@@ -4132,8 +4436,11 @@
       <c r="H103" s="4">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="5">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>296</v>
       </c>
@@ -4158,8 +4465,11 @@
       <c r="H104" s="4">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="5">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>296</v>
       </c>
@@ -4184,8 +4494,11 @@
       <c r="H105" s="4">
         <v>5.93</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="5">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>296</v>
       </c>
@@ -4210,8 +4523,11 @@
       <c r="H106" s="4">
         <v>5.92</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I106" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>304</v>
       </c>
@@ -4236,8 +4552,11 @@
       <c r="H107" s="4">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="5">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>307</v>
       </c>
@@ -4262,8 +4581,11 @@
       <c r="H108" s="4">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="5">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>310</v>
       </c>
@@ -4288,8 +4610,11 @@
       <c r="H109" s="4">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>313</v>
       </c>
@@ -4314,8 +4639,11 @@
       <c r="H110" s="4">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>313</v>
       </c>
@@ -4340,8 +4668,11 @@
       <c r="H111" s="4">
         <v>5.1100000000000003</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="5">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>318</v>
       </c>
@@ -4363,11 +4694,14 @@
       <c r="G112" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="I112" s="5">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>321</v>
       </c>
@@ -4389,11 +4723,14 @@
       <c r="G113" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="I113" s="5">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>201</v>
       </c>
@@ -4415,11 +4752,14 @@
       <c r="G114" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I114" s="5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>328</v>
       </c>
@@ -4441,11 +4781,14 @@
       <c r="G115" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="4">
+        <v>5.45</v>
+      </c>
+      <c r="I115" s="5">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>264</v>
       </c>
@@ -4467,11 +4810,14 @@
       <c r="G116" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="4">
+        <v>5.94</v>
+      </c>
+      <c r="I116" s="5">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>267</v>
       </c>
@@ -4493,11 +4839,14 @@
       <c r="G117" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="4">
+        <v>7.32</v>
+      </c>
+      <c r="I117" s="5">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>336</v>
       </c>
@@ -4519,11 +4868,14 @@
       <c r="G118" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>336</v>
       </c>
@@ -4545,11 +4897,14 @@
       <c r="G119" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H119" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>343</v>
       </c>
@@ -4571,11 +4926,14 @@
       <c r="G120" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="4">
+        <v>13.78</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>343</v>
       </c>
@@ -4597,11 +4955,14 @@
       <c r="G121" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H121" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="4">
+        <v>13.78</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>273</v>
       </c>
@@ -4623,11 +4984,14 @@
       <c r="G122" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="4">
+        <v>11.11</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>276</v>
       </c>
@@ -4649,11 +5013,14 @@
       <c r="G123" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H123" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="4">
+        <v>10.54</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>276</v>
       </c>
@@ -4675,11 +5042,14 @@
       <c r="G124" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>307</v>
       </c>
@@ -4701,11 +5071,14 @@
       <c r="G125" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H125" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="4">
+        <v>7.42</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>307</v>
       </c>
@@ -4727,11 +5100,14 @@
       <c r="G126" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H126" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="4">
+        <v>7.44</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>358</v>
       </c>
@@ -4753,11 +5129,14 @@
       <c r="G127" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H127" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="4">
+        <v>7.57</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>361</v>
       </c>
@@ -4779,11 +5158,14 @@
       <c r="G128" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H128" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="4">
+        <v>8.49</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>361</v>
       </c>
@@ -4805,11 +5187,14 @@
       <c r="G129" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H129" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="4">
+        <v>8.58</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>366</v>
       </c>
@@ -4831,11 +5216,14 @@
       <c r="G130" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H130" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="4">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>313</v>
       </c>
@@ -4857,11 +5245,14 @@
       <c r="G131" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="4">
+        <v>5.38</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>318</v>
       </c>
@@ -4883,11 +5274,14 @@
       <c r="G132" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H132" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>318</v>
       </c>
@@ -4909,11 +5303,14 @@
       <c r="G133" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H133" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="4">
+        <v>5.63</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>318</v>
       </c>
@@ -4935,8 +5332,11 @@
       <c r="G134" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H134" s="4" t="s">
-        <v>374</v>
+      <c r="H134" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/data/Fuel Consumption - Wikipedia.xlsx
+++ b/data/Fuel Consumption - Wikipedia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malcolm\Documents\GitHub\creds2\LDT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\creds2\LDT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556B96F-8048-4B07-A1EC-C6E270D0B9B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0CFCF-11EF-44F3-B344-EA345562B733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C290B58C-01FA-4D98-A9C1-CC1C9175AF2C}"/>
+    <workbookView xWindow="14070" yWindow="3345" windowWidth="14625" windowHeight="8535" xr2:uid="{C290B58C-01FA-4D98-A9C1-CC1C9175AF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="382">
   <si>
     <t>Model</t>
   </si>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037F5F14-2D40-42B9-8E2E-5EF20A498CBC}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I117" sqref="I2:I134"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1613,3867 +1613,3870 @@
     </row>
     <row r="2" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="C2" s="4">
-        <v>89</v>
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H2" s="4">
-        <v>4.2300000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="I2" s="5">
-        <v>5.95</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="B3" s="4">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C3" s="4">
-        <v>99</v>
+        <v>140</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H3" s="4">
-        <v>4.34</v>
+        <v>3.1</v>
       </c>
       <c r="I3" s="5">
-        <v>5.47</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4">
-        <v>1995</v>
+        <v>2013</v>
       </c>
       <c r="C4" s="4">
-        <v>48</v>
+        <v>125</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H4" s="4">
-        <v>1.26</v>
+        <v>2.57</v>
       </c>
       <c r="I4" s="5">
-        <v>3.15</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="C5" s="4">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H5" s="4">
-        <v>1.42</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I5" s="5">
-        <v>2.5299999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="B6" s="4">
-        <v>1982</v>
+        <v>2015</v>
       </c>
       <c r="C6" s="4">
-        <v>19</v>
+        <v>160</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>2.85</v>
       </c>
       <c r="I6" s="5">
-        <v>6.57</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4">
-        <v>1991</v>
+        <v>2015</v>
       </c>
       <c r="C7" s="4">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H7" s="4">
-        <v>2.21</v>
+        <v>2.56</v>
       </c>
       <c r="I7" s="5">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B8" s="4">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="C8" s="4">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H8" s="4">
-        <v>2.1800000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I8" s="5">
-        <v>5.43</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="B9" s="4">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="C9" s="4">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H9" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="I9" s="5">
         <v>2.95</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5.25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="C10" s="4">
-        <v>88</v>
+        <v>144</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H10" s="4">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="I10" s="5">
-        <v>4.91</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="C11" s="4">
-        <v>78</v>
+        <v>124</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H11" s="4">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="I11" s="5">
-        <v>3.46</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="B12" s="4">
-        <v>1981</v>
+        <v>2015</v>
       </c>
       <c r="C12" s="4">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H12" s="4">
-        <v>0.94</v>
+        <v>2.4</v>
       </c>
       <c r="I12" s="5">
-        <v>6.22</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="B13" s="4">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="C13" s="4">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H13" s="4">
-        <v>1.22</v>
+        <v>3.13</v>
       </c>
       <c r="I13" s="5">
-        <v>4.76</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="B14" s="4">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="C14" s="4">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="H14" s="4">
-        <v>0.92</v>
+        <v>2.91</v>
       </c>
       <c r="I14" s="5">
-        <v>3.82</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="C15" s="4">
-        <v>37</v>
+        <v>154</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H15" s="4">
-        <v>1.64</v>
+        <v>2.79</v>
       </c>
       <c r="I15" s="5">
-        <v>4.09</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="B16" s="4">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C16" s="4">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H16" s="4">
-        <v>1.76</v>
+        <v>3.61</v>
       </c>
       <c r="I16" s="5">
-        <v>4.37</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4">
-        <v>1983</v>
+        <v>2015</v>
       </c>
       <c r="C17" s="4">
-        <v>32</v>
+        <v>192</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="H17" s="4">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="I17" s="5">
-        <v>4.29</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="B18" s="4">
-        <v>1992</v>
+        <v>2016</v>
       </c>
       <c r="C18" s="4">
-        <v>50</v>
+        <v>154</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="H18" s="4">
-        <v>1.75</v>
+        <v>2.99</v>
       </c>
       <c r="I18" s="5">
-        <v>4.3899999999999997</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="B19" s="4">
-        <v>2019</v>
+        <v>1997</v>
       </c>
       <c r="C19" s="4">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="H19" s="4">
-        <v>1.69</v>
+        <v>5.6</v>
       </c>
       <c r="I19" s="5">
-        <v>2.71</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="B20" s="4">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="C20" s="4">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="H20" s="4">
-        <v>3.37</v>
+        <v>6</v>
       </c>
       <c r="I20" s="5">
-        <v>2.92</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="B21" s="4">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="C21" s="4">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>325</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>63</v>
+        <v>326</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H21" s="4">
-        <v>2.82</v>
+        <v>6.4</v>
       </c>
       <c r="I21" s="5">
-        <v>2.82</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="B22" s="4">
-        <v>2015</v>
+        <v>1992</v>
       </c>
       <c r="C22" s="4">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="H22" s="4">
-        <v>2.79</v>
+        <v>6.25</v>
       </c>
       <c r="I22" s="5">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="B23" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C23" s="4">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H23" s="4">
-        <v>3.3</v>
+        <v>5.45</v>
       </c>
       <c r="I23" s="5">
-        <v>2.19</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="B24" s="4">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C24" s="4">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="H24" s="4">
-        <v>2.89</v>
+        <v>6</v>
       </c>
       <c r="I24" s="5">
-        <v>4.0599999999999996</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="B25" s="4">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C25" s="4">
-        <v>99</v>
+        <v>300</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H25" s="4">
-        <v>3</v>
+        <v>5.94</v>
       </c>
       <c r="I25" s="5">
-        <v>3.79</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="B26" s="4">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="C26" s="4">
-        <v>126</v>
+        <v>262</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="H26" s="4">
-        <v>3.49</v>
+        <v>6.81</v>
       </c>
       <c r="I26" s="5">
-        <v>3.46</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="B27" s="4">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C27" s="4">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H27" s="4">
-        <v>3.16</v>
+        <v>7.32</v>
       </c>
       <c r="I27" s="5">
-        <v>3.59</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
       <c r="B28" s="4">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="C28" s="4">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>338</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>88</v>
+        <v>339</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H28" s="4">
-        <v>3.21</v>
+        <v>6.03</v>
       </c>
       <c r="I28" s="5">
-        <v>3.19</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="B29" s="4">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C29" s="4">
-        <v>128</v>
+        <v>315</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>62</v>
+        <v>340</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>90</v>
+        <v>341</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H29" s="4">
-        <v>2.85</v>
+        <v>7.07</v>
       </c>
       <c r="I29" s="5">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="B30" s="4">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="C30" s="4">
-        <v>144</v>
+        <v>525</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>92</v>
+        <v>345</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>93</v>
+        <v>346</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H30" s="4">
-        <v>3.39</v>
+        <v>13.78</v>
       </c>
       <c r="I30" s="5">
-        <v>2.93</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="B31" s="4">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="C31" s="4">
-        <v>162</v>
+        <v>544</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>96</v>
+        <v>347</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="H31" s="4">
-        <v>3.59</v>
+        <v>13.78</v>
       </c>
       <c r="I31" s="5">
-        <v>2.77</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="C32" s="4">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H32" s="4">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="I32" s="5">
-        <v>2.2799999999999998</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="B33" s="4">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C33" s="4">
-        <v>180</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H33" s="4">
-        <v>3.83</v>
+        <v>2.75</v>
       </c>
       <c r="I33" s="5">
-        <v>2.66</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="B34" s="4">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="C34" s="4">
-        <v>180</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H34" s="4">
-        <v>3.3</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="I34" s="5">
-        <v>2.2999999999999998</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B35" s="4">
-        <v>1982</v>
+        <v>2010</v>
       </c>
       <c r="C35" s="4">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H35" s="4">
-        <v>4.68</v>
+        <v>3</v>
       </c>
       <c r="I35" s="5">
-        <v>2.91</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="B36" s="4">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="4">
-        <v>243</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H36" s="4">
-        <v>5.19</v>
+        <v>2.83</v>
       </c>
       <c r="I36" s="5">
-        <v>2.66</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B37" s="4">
-        <v>1991</v>
+        <v>2010</v>
       </c>
       <c r="C37" s="4">
-        <v>50</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H37" s="4">
-        <v>1.87</v>
+        <v>4.34</v>
       </c>
       <c r="I37" s="5">
-        <v>4.68</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B38" s="4">
         <v>1995</v>
       </c>
       <c r="C38" s="4">
-        <v>50</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H38" s="4">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="I38" s="5">
-        <v>4.49</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C39" s="4">
         <v>70</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H39" s="4">
-        <v>2.4500000000000002</v>
+        <v>1.42</v>
       </c>
       <c r="I39" s="5">
-        <v>4.4000000000000004</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B40" s="4">
-        <v>2001</v>
+        <v>1982</v>
       </c>
       <c r="C40" s="4">
-        <v>88</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H40" s="4">
-        <v>2.78</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5">
-        <v>3.94</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B41" s="4">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="C41" s="4">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H41" s="4">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
       <c r="I41" s="5">
-        <v>3.33</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B42" s="4">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C42" s="4">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H42" s="4">
-        <v>2.8</v>
+        <v>3.39</v>
       </c>
       <c r="I42" s="5">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B43" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C43" s="4">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H43" s="4">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="I43" s="5">
-        <v>2.75</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B44" s="4">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C44" s="4">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H44" s="4">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="I44" s="5">
-        <v>2.57</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="B45" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C45" s="4">
-        <v>160</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H45" s="4">
-        <v>2.85</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I45" s="5">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="B46" s="4">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="C46" s="4">
-        <v>82</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H46" s="4">
-        <v>1.83</v>
+        <v>2.71</v>
       </c>
       <c r="I46" s="5">
-        <v>2.79</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="B47" s="4">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="C47" s="4">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="H47" s="4">
-        <v>1.08</v>
+        <v>2.86</v>
       </c>
       <c r="I47" s="5">
-        <v>4.3499999999999996</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="B48" s="4">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C48" s="4">
-        <v>88</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H48" s="4">
-        <v>2.44</v>
+        <v>2.91</v>
       </c>
       <c r="I48" s="5">
-        <v>3.44</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="B49" s="4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C49" s="4">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="H49" s="4">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="I49" s="5">
-        <v>3.32</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B50" s="4">
-        <v>2019</v>
+        <v>1984</v>
       </c>
       <c r="C50" s="4">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H50" s="4">
-        <v>3.07</v>
+        <v>3.49</v>
       </c>
       <c r="I50" s="5">
-        <v>2.9</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B51" s="4">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C51" s="4">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H51" s="4">
-        <v>2.6</v>
+        <v>3.16</v>
       </c>
       <c r="I51" s="5">
-        <v>4.08</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B52" s="4">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="C52" s="4">
-        <v>88</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H52" s="4">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I52" s="5">
-        <v>3.97</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="B53" s="4">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C53" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H53" s="4">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="I53" s="5">
-        <v>3.54</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="B54" s="4">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C54" s="4">
-        <v>122</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H54" s="4">
-        <v>3.21</v>
+        <v>2.82</v>
       </c>
       <c r="I54" s="5">
-        <v>3.28</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B55" s="4">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C55" s="4">
-        <v>37</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H55" s="4">
-        <v>1.44</v>
+        <v>2.8</v>
       </c>
       <c r="I55" s="5">
-        <v>3.6</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="B56" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C56" s="4">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H56" s="4">
-        <v>1.55</v>
+        <v>3.59</v>
       </c>
       <c r="I56" s="5">
-        <v>3.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="B57" s="4">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="C57" s="4">
-        <v>9</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H57" s="4">
-        <v>0.41</v>
+        <v>3.17</v>
       </c>
       <c r="I57" s="5">
-        <v>5.66</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B58" s="4">
-        <v>1983</v>
+        <v>1997</v>
       </c>
       <c r="C58" s="4">
-        <v>31</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H58" s="4">
-        <v>0.95</v>
+        <v>3.45</v>
       </c>
       <c r="I58" s="5">
-        <v>3.83</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="B59" s="4">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="C59" s="4">
-        <v>50</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H59" s="4">
-        <v>1.54</v>
+        <v>3.18</v>
       </c>
       <c r="I59" s="5">
-        <v>3.85</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="B60" s="4">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C60" s="4">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>188</v>
       </c>
       <c r="H60" s="4">
-        <v>2.81</v>
+        <v>3.83</v>
       </c>
       <c r="I60" s="5">
-        <v>3.59</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B61" s="4">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="C61" s="4">
-        <v>78</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H61" s="4">
-        <v>1.56</v>
+        <v>3.42</v>
       </c>
       <c r="I61" s="5">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="B62" s="4">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="C62" s="4">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>251</v>
       </c>
       <c r="H62" s="4">
-        <v>2.93</v>
+        <v>3.42</v>
       </c>
       <c r="I62" s="5">
-        <v>2.95</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="B63" s="4">
-        <v>2015</v>
+        <v>1988</v>
       </c>
       <c r="C63" s="4">
-        <v>136</v>
+        <v>416</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H63" s="4">
-        <v>2.4</v>
+        <v>10.77</v>
       </c>
       <c r="I63" s="5">
-        <v>1.93</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="B64" s="4">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C64" s="4">
-        <v>150</v>
+        <v>416</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="H64" s="4">
-        <v>3.13</v>
+        <v>11.11</v>
       </c>
       <c r="I64" s="5">
-        <v>2.61</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="B65" s="4">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="C65" s="4">
-        <v>180</v>
+        <v>467</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H65" s="4">
-        <v>3.61</v>
+        <v>9.9</v>
       </c>
       <c r="I65" s="5">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="B66" s="4">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="C66" s="4">
-        <v>293</v>
+        <v>467</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="H66" s="4">
-        <v>5.6</v>
+        <v>10.54</v>
       </c>
       <c r="I66" s="5">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="B67" s="4">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C67" s="4">
-        <v>89</v>
+        <v>405</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="H67" s="4">
-        <v>2.75</v>
+        <v>10.9</v>
       </c>
       <c r="I67" s="5">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="B68" s="4">
-        <v>2010</v>
+        <v>1982</v>
       </c>
       <c r="C68" s="4">
-        <v>99</v>
+        <v>200</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="H68" s="4">
-        <v>2.83</v>
+        <v>4.68</v>
       </c>
       <c r="I68" s="5">
-        <v>3.57</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B69" s="4">
-        <v>1998</v>
+        <v>1982</v>
       </c>
       <c r="C69" s="4">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>251</v>
       </c>
       <c r="H69" s="4">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I69" s="5">
-        <v>3.15</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B70" s="4">
-        <v>1997</v>
+        <v>1982</v>
       </c>
       <c r="C70" s="4">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>251</v>
       </c>
       <c r="H70" s="4">
-        <v>2.82</v>
+        <v>4.16</v>
       </c>
       <c r="I70" s="5">
-        <v>2.79</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="B71" s="4">
-        <v>1997</v>
+        <v>1981</v>
       </c>
       <c r="C71" s="4">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H71" s="4">
-        <v>2.8</v>
+        <v>3.79</v>
       </c>
       <c r="I71" s="5">
-        <v>2.71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="B72" s="4">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="C72" s="4">
-        <v>140</v>
+        <v>243</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="H72" s="4">
-        <v>2.5099999999999998</v>
+        <v>5.19</v>
       </c>
       <c r="I72" s="5">
-        <v>1.94</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B73" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C73" s="4">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>251</v>
       </c>
       <c r="H73" s="4">
-        <v>3.17</v>
+        <v>4.68</v>
       </c>
       <c r="I73" s="5">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="B74" s="4">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="C74" s="4">
-        <v>160</v>
+        <v>181</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H74" s="4">
-        <v>3.45</v>
+        <v>4.83</v>
       </c>
       <c r="I74" s="5">
-        <v>2.68</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="B75" s="4">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="C75" s="4">
-        <v>162</v>
+        <v>193</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H75" s="4">
-        <v>3.18</v>
+        <v>5.01</v>
       </c>
       <c r="I75" s="5">
-        <v>2.4500000000000002</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="B76" s="4">
-        <v>2017</v>
+        <v>1984</v>
       </c>
       <c r="C76" s="4">
-        <v>162</v>
+        <v>224</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H76" s="4">
-        <v>2.71</v>
+        <v>4.93</v>
       </c>
       <c r="I76" s="5">
-        <v>2.04</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="B77" s="4">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="C77" s="4">
-        <v>180</v>
+        <v>218</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H77" s="4">
-        <v>3.42</v>
+        <v>5.38</v>
       </c>
       <c r="I77" s="5">
-        <v>2.38</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="B78" s="4">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="C78" s="4">
-        <v>180</v>
+        <v>218</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>229</v>
+        <v>292</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H78" s="4">
-        <v>3.42</v>
+        <v>5.39</v>
       </c>
       <c r="I78" s="5">
-        <v>2.37</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="B79" s="4">
-        <v>2017</v>
+        <v>1988</v>
       </c>
       <c r="C79" s="4">
-        <v>180</v>
+        <v>269</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H79" s="4">
-        <v>2.91</v>
+        <v>5.51</v>
       </c>
       <c r="I79" s="5">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="B80" s="4">
-        <v>1982</v>
+        <v>1999</v>
       </c>
       <c r="C80" s="4">
-        <v>190</v>
+        <v>245</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H80" s="4">
-        <v>4.5999999999999996</v>
+        <v>5.78</v>
       </c>
       <c r="I80" s="5">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="B81" s="4">
-        <v>1982</v>
+        <v>1999</v>
       </c>
       <c r="C81" s="4">
-        <v>200</v>
+        <v>304</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H81" s="4">
-        <v>4.16</v>
+        <v>5.93</v>
       </c>
       <c r="I81" s="5">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="B82" s="4">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C82" s="4">
-        <v>243</v>
+        <v>304</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H82" s="4">
-        <v>4.68</v>
+        <v>5.92</v>
       </c>
       <c r="I82" s="5">
-        <v>2.4</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
       <c r="B83" s="4">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="C83" s="4">
-        <v>125</v>
+        <v>305</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H83" s="4">
-        <v>2.2799999999999998</v>
+        <v>6.83</v>
       </c>
       <c r="I83" s="5">
-        <v>2.2799999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="B84" s="4">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="C84" s="4">
-        <v>160</v>
+        <v>301</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="H84" s="4">
-        <v>2.56</v>
+        <v>6.96</v>
       </c>
       <c r="I84" s="5">
-        <v>2</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="B85" s="4">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="C85" s="4">
-        <v>135</v>
+        <v>301</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="H85" s="4">
-        <v>2.2999999999999998</v>
+        <v>7.42</v>
       </c>
       <c r="I85" s="5">
-        <v>1.85</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="B86" s="4">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="C86" s="4">
-        <v>9</v>
+        <v>301</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>250</v>
+        <v>357</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="H86" s="4">
-        <v>0.71</v>
+        <v>7.44</v>
       </c>
       <c r="I86" s="5">
-        <v>6.28</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>195</v>
+        <v>358</v>
       </c>
       <c r="B87" s="4">
-        <v>1987</v>
+        <v>2005</v>
       </c>
       <c r="C87" s="4">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>234</v>
+        <v>359</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H87" s="4">
-        <v>2.91</v>
+        <v>7.57</v>
       </c>
       <c r="I87" s="5">
-        <v>2.4300000000000002</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="B88" s="4">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="C88" s="4">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>324</v>
       </c>
       <c r="H88" s="4">
-        <v>2.99</v>
+        <v>7.88</v>
       </c>
       <c r="I88" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="B89" s="4">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="C89" s="4">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H89" s="4">
-        <v>6</v>
+        <v>8.49</v>
       </c>
       <c r="I89" s="5">
-        <v>3.11</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>261</v>
+        <v>361</v>
       </c>
       <c r="B90" s="4">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="C90" s="4">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H90" s="4">
-        <v>6.25</v>
+        <v>8.58</v>
       </c>
       <c r="I90" s="5">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="B91" s="4">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C91" s="4">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H91" s="4">
-        <v>6</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="I91" s="5">
-        <v>2.42</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="B92" s="4">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="C92" s="4">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>324</v>
       </c>
       <c r="H92" s="4">
-        <v>6.81</v>
+        <v>5.26</v>
       </c>
       <c r="I92" s="5">
-        <v>3.25</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="B93" s="4">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="C93" s="4">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>324</v>
       </c>
       <c r="H93" s="4">
-        <v>2.86</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="I93" s="5">
-        <v>2.13</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="B94" s="4">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C94" s="4">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>272</v>
+        <v>369</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H94" s="4">
-        <v>2.91</v>
+        <v>5.38</v>
       </c>
       <c r="I94" s="5">
-        <v>2.5299999999999998</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="B95" s="4">
-        <v>1988</v>
+        <v>2013</v>
       </c>
       <c r="C95" s="4">
-        <v>416</v>
+        <v>304</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>324</v>
       </c>
       <c r="H95" s="4">
-        <v>10.77</v>
+        <v>5.77</v>
       </c>
       <c r="I95" s="5">
-        <v>3.24</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="B96" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C96" s="4">
-        <v>467</v>
+        <v>294</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H96" s="4">
-        <v>9.9</v>
+        <v>5.85</v>
       </c>
       <c r="I96" s="5">
-        <v>2.65</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="B97" s="4">
-        <v>1981</v>
+        <v>2013</v>
       </c>
       <c r="C97" s="4">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H97" s="4">
-        <v>3.79</v>
+        <v>5.63</v>
       </c>
       <c r="I97" s="5">
-        <v>3</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B98" s="4">
-        <v>1984</v>
+        <v>2013</v>
       </c>
       <c r="C98" s="4">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="H98" s="4">
-        <v>4.83</v>
+        <v>7.18</v>
       </c>
       <c r="I98" s="5">
-        <v>3.34</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="B99" s="4">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="C99" s="4">
-        <v>193</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H99" s="4">
-        <v>5.01</v>
+        <v>2.21</v>
       </c>
       <c r="I99" s="5">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="B100" s="4">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="C100" s="4">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>287</v>
+        <v>112</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="H100" s="4">
-        <v>4.93</v>
+        <v>1.87</v>
       </c>
       <c r="I100" s="5">
-        <v>2.75</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="B101" s="4">
-        <v>1988</v>
+        <v>2009</v>
       </c>
       <c r="C101" s="4">
-        <v>218</v>
+        <v>100</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>291</v>
+        <v>125</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="H101" s="4">
-        <v>5.38</v>
+        <v>2.66</v>
       </c>
       <c r="I101" s="5">
-        <v>3.09</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B102" s="4">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="C102" s="4">
-        <v>218</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H102" s="4">
-        <v>5.39</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I102" s="5">
-        <v>3.09</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="B103" s="4">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="C103" s="4">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="H103" s="4">
-        <v>5.51</v>
+        <v>1.8</v>
       </c>
       <c r="I103" s="5">
-        <v>2.56</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="B104" s="4">
         <v>1999</v>
       </c>
       <c r="C104" s="4">
-        <v>245</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>297</v>
+        <v>24</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H104" s="4">
-        <v>5.78</v>
+        <v>2.95</v>
       </c>
       <c r="I104" s="5">
-        <v>2.95</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="B105" s="4">
         <v>1999</v>
       </c>
       <c r="C105" s="4">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>299</v>
+        <v>118</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="H105" s="4">
-        <v>5.93</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I105" s="5">
-        <v>2.44</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>296</v>
+        <v>26</v>
       </c>
       <c r="B106" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C106" s="4">
-        <v>304</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H106" s="4">
-        <v>5.92</v>
+        <v>3.47</v>
       </c>
       <c r="I106" s="5">
-        <v>2.4300000000000002</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>304</v>
+        <v>26</v>
       </c>
       <c r="B107" s="4">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="C107" s="4">
-        <v>305</v>
+        <v>88</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>306</v>
+        <v>122</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="H107" s="4">
-        <v>6.83</v>
+        <v>2.78</v>
       </c>
       <c r="I107" s="5">
-        <v>2.8</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="B108" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C108" s="4">
-        <v>301</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H108" s="4">
-        <v>6.96</v>
+        <v>2.16</v>
       </c>
       <c r="I108" s="5">
-        <v>2.89</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="B109" s="4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C109" s="4">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>311</v>
+        <v>138</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>312</v>
+        <v>139</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="H109" s="4">
-        <v>7.88</v>
+        <v>1.83</v>
       </c>
       <c r="I109" s="5">
-        <v>2.68</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="B110" s="4">
-        <v>2009</v>
+        <v>1981</v>
       </c>
       <c r="C110" s="4">
-        <v>291</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H110" s="4">
-        <v>5.26</v>
+        <v>0.94</v>
       </c>
       <c r="I110" s="5">
-        <v>2.2599999999999998</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="B111" s="4">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="C111" s="4">
-        <v>238</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H111" s="4">
-        <v>5.1100000000000003</v>
+        <v>1.22</v>
       </c>
       <c r="I111" s="5">
-        <v>2.68</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="B112" s="4">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="C112" s="4">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>319</v>
+        <v>140</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="H112" s="4">
-        <v>5.77</v>
+        <v>1.08</v>
       </c>
       <c r="I112" s="5">
-        <v>2.37</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="B113" s="4">
-        <v>2017</v>
+        <v>1983</v>
       </c>
       <c r="C113" s="4">
-        <v>163</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>324</v>
+        <v>57</v>
       </c>
       <c r="H113" s="4">
-        <v>3.04</v>
+        <v>0.92</v>
       </c>
       <c r="I113" s="5">
-        <v>2.33</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="B114" s="4">
-        <v>1997</v>
+        <v>2020</v>
       </c>
       <c r="C114" s="4">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>325</v>
+        <v>59</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>327</v>
+        <v>144</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H114" s="4">
-        <v>6.4</v>
+        <v>2.44</v>
       </c>
       <c r="I114" s="5">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="B115" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C115" s="4">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>330</v>
+        <v>146</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>331</v>
+        <v>147</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H115" s="4">
-        <v>5.45</v>
+        <v>2.83</v>
       </c>
       <c r="I115" s="5">
-        <v>2.75</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="B116" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C116" s="4">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H116" s="4">
-        <v>5.94</v>
+        <v>3.07</v>
       </c>
       <c r="I116" s="5">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="B117" s="4">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="C117" s="4">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>325</v>
+        <v>152</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>335</v>
+        <v>154</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H117" s="4">
-        <v>7.32</v>
+        <v>2.6</v>
       </c>
       <c r="I117" s="5">
-        <v>3.49</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>336</v>
+        <v>155</v>
       </c>
       <c r="B118" s="4">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="C118" s="4">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>338</v>
+        <v>157</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>339</v>
+        <v>158</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H118" s="4">
-        <v>6.03</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>339</v>
+        <v>2.8</v>
+      </c>
+      <c r="I118" s="5">
+        <v>3.97</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>336</v>
+        <v>159</v>
       </c>
       <c r="B119" s="4">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C119" s="4">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>341</v>
+        <v>161</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H119" s="4">
-        <v>7.07</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>342</v>
+        <v>3.24</v>
+      </c>
+      <c r="I119" s="5">
+        <v>3.54</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>343</v>
+        <v>163</v>
       </c>
       <c r="B120" s="4">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C120" s="4">
-        <v>525</v>
+        <v>122</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>345</v>
+        <v>164</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>346</v>
+        <v>165</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H120" s="4">
-        <v>13.78</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>346</v>
+        <v>3.21</v>
+      </c>
+      <c r="I120" s="5">
+        <v>3.28</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>343</v>
+        <v>166</v>
       </c>
       <c r="B121" s="4">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="C121" s="4">
-        <v>544</v>
+        <v>37</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>345</v>
+        <v>168</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>347</v>
+        <v>169</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H121" s="4">
-        <v>13.78</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>347</v>
+        <v>1.44</v>
+      </c>
+      <c r="I121" s="5">
+        <v>3.6</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="B122" s="4">
-        <v>1988</v>
+        <v>1998</v>
       </c>
       <c r="C122" s="4">
-        <v>416</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H122" s="4">
-        <v>11.11</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>349</v>
+        <v>1.64</v>
+      </c>
+      <c r="I122" s="5">
+        <v>4.09</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="B123" s="4">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="C123" s="4">
-        <v>467</v>
+        <v>50</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>325</v>
+        <v>171</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H123" s="4">
-        <v>10.54</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>351</v>
+        <v>1.55</v>
+      </c>
+      <c r="I123" s="5">
+        <v>3.9</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="B124" s="4">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="C124" s="4">
-        <v>405</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>344</v>
+        <v>50</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H124" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>353</v>
+        <v>1.76</v>
+      </c>
+      <c r="I124" s="5">
+        <v>4.37</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B125" s="4">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="C125" s="4">
-        <v>301</v>
+        <v>163</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>354</v>
+        <v>98</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="H125" s="4">
-        <v>7.42</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>355</v>
+        <v>3.04</v>
+      </c>
+      <c r="I125" s="5">
+        <v>2.33</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="B126" s="4">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="C126" s="4">
-        <v>301</v>
+        <v>9</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>357</v>
+        <v>176</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H126" s="4">
-        <v>7.44</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>357</v>
+        <v>0.41</v>
+      </c>
+      <c r="I126" s="5">
+        <v>5.66</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="B127" s="4">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C127" s="4">
-        <v>291</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>337</v>
+        <v>9</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>376</v>
+        <v>251</v>
       </c>
       <c r="H127" s="4">
-        <v>7.57</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>360</v>
+        <v>0.71</v>
+      </c>
+      <c r="I127" s="5">
+        <v>6.28</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>361</v>
+        <v>50</v>
       </c>
       <c r="B128" s="4">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C128" s="4">
-        <v>365</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>362</v>
+        <v>51</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>363</v>
+        <v>52</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H128" s="4">
-        <v>8.49</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>363</v>
+        <v>1.75</v>
+      </c>
+      <c r="I128" s="5">
+        <v>4.3899999999999997</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>361</v>
+        <v>50</v>
       </c>
       <c r="B129" s="4">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C129" s="4">
-        <v>344</v>
+        <v>50</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>364</v>
+        <v>179</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H129" s="4">
-        <v>8.58</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>365</v>
+        <v>1.54</v>
+      </c>
+      <c r="I129" s="5">
+        <v>3.85</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>366</v>
+        <v>47</v>
       </c>
       <c r="B130" s="4">
-        <v>2020</v>
+        <v>1983</v>
       </c>
       <c r="C130" s="4">
-        <v>395</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>367</v>
+        <v>48</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>368</v>
+        <v>49</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H130" s="4">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>368</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I130" s="5">
+        <v>4.29</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>313</v>
+        <v>47</v>
       </c>
       <c r="B131" s="4">
-        <v>2011</v>
+        <v>1983</v>
       </c>
       <c r="C131" s="4">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>369</v>
+        <v>178</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H131" s="4">
-        <v>5.38</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>369</v>
+        <v>0.95</v>
+      </c>
+      <c r="I131" s="5">
+        <v>3.83</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="B132" s="4">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C132" s="4">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>370</v>
+        <v>182</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>371</v>
+        <v>183</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H132" s="4">
-        <v>5.85</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>371</v>
+        <v>2.81</v>
+      </c>
+      <c r="I132" s="5">
+        <v>3.59</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="B133" s="4">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C133" s="4">
-        <v>304</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>372</v>
+        <v>54</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>373</v>
+        <v>55</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H133" s="4">
-        <v>5.63</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>373</v>
+        <v>1.69</v>
+      </c>
+      <c r="I133" s="5">
+        <v>2.71</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="B134" s="4">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C134" s="4">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>340</v>
+        <v>184</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>374</v>
+        <v>185</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="H134" s="4">
-        <v>7.18</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>375</v>
+        <v>1.56</v>
+      </c>
+      <c r="I134" s="5">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I134">
+    <sortCondition ref="A2:A134"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{35290CB9-C0F6-4F62-99EA-4F36EB926BC5}"/>
-    <hyperlink ref="F3" r:id="rId2" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{B51156E2-12D2-4291-8D81-4108E9C743E7}"/>
-    <hyperlink ref="F4" r:id="rId3" location="cite_note-ATR-31" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-ATR-31" xr:uid="{31D7FAC2-DAC8-4D5B-8A49-C39D08D533DB}"/>
-    <hyperlink ref="F5" r:id="rId4" location="cite_note-ATR-31" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-ATR-31" xr:uid="{C51848D7-1C08-4C2F-810A-B111BFE874EA}"/>
-    <hyperlink ref="F6" r:id="rId5" location="cite_note-32" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-32" xr:uid="{80A26FD9-53D0-467C-9AA7-4E8657EA77B6}"/>
-    <hyperlink ref="F7" r:id="rId6" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{0C029BB2-5761-4F3E-9D9F-2A077A032783}"/>
-    <hyperlink ref="F8" r:id="rId7" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{DE6F15EB-B962-4B7A-BD0B-3EA9CB3ED71A}"/>
-    <hyperlink ref="F9" r:id="rId8" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{C2E19107-41FD-47E7-B805-04A02229DD63}"/>
-    <hyperlink ref="F10" r:id="rId9" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{46DD9597-6E28-4E33-A6BF-B630DDAEFAC7}"/>
-    <hyperlink ref="F11" r:id="rId10" location="cite_note-34" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-34" xr:uid="{22615CBC-EB60-4EED-9BF1-8A6722BFD41A}"/>
-    <hyperlink ref="F12" r:id="rId11" location="cite_note-35" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-35" xr:uid="{5CF2AE58-6BDE-49E0-8D61-22D652DC0F4D}"/>
-    <hyperlink ref="F13" r:id="rId12" location="cite_note-36" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-36" xr:uid="{8749B297-7570-42B3-97A0-41F1553A7DA9}"/>
-    <hyperlink ref="F14" r:id="rId13" location="cite_note-37" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-37" xr:uid="{DF5EFB29-9A69-4EB9-87B2-134C6FA1ED76}"/>
-    <hyperlink ref="F15" r:id="rId14" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{8725B0CB-A7AB-4CE4-AC68-004272BEE1B6}"/>
-    <hyperlink ref="F16" r:id="rId15" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{483EF2CC-3AE6-4197-A235-C947F52DE240}"/>
-    <hyperlink ref="F17" r:id="rId16" location="cite_note-Saab340-39" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab340-39" xr:uid="{4510703B-E961-4263-916A-5C394983DC74}"/>
-    <hyperlink ref="F18" r:id="rId17" location="cite_note-Saab2000-40" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab2000-40" xr:uid="{EEF8DE18-903E-4565-8040-93049D786B4B}"/>
-    <hyperlink ref="F19" r:id="rId18" location="cite_note-MA700-41" display="cite_note-MA700-41" xr:uid="{BA64F713-7AA8-4158-87E7-AED0065214CF}"/>
-    <hyperlink ref="F20" r:id="rId19" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{5B3BC4A8-EAE0-4D92-B78F-2899843C388A}"/>
-    <hyperlink ref="F21" r:id="rId20" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{DF32830A-1369-4393-8707-B0B09E2E50C1}"/>
-    <hyperlink ref="F22" r:id="rId21" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{D779BAE3-3835-4FD1-9E0B-7E178B7BF247}"/>
-    <hyperlink ref="F23" r:id="rId22" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{E8167844-281E-4DF0-A089-D84B0C63DF83}"/>
-    <hyperlink ref="F24" r:id="rId23" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{3659CE2E-6C6D-4909-A3BB-8E03B58CCF99}"/>
-    <hyperlink ref="F25" r:id="rId24" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{D457DAE4-2F73-4B9D-94DC-4CEF51EB66F1}"/>
-    <hyperlink ref="F26" r:id="rId25" location="cite_note-WSJ100812-44" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-WSJ100812-44" xr:uid="{4590A2E3-A4C8-4B50-AD52-EE1F881D84A3}"/>
-    <hyperlink ref="F27" r:id="rId26" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{8F212DEC-C400-4AA8-A012-40E1BD5D92A7}"/>
-    <hyperlink ref="F28" r:id="rId27" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{F89BDE35-C5D6-416A-B1F2-EF180763C663}"/>
-    <hyperlink ref="F29" r:id="rId28" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{8E86B1B3-D36D-40B9-937D-0CF115E357A7}"/>
-    <hyperlink ref="F30" r:id="rId29" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{1F6811E8-D421-449F-8860-74F342509CA7}"/>
-    <hyperlink ref="F31" r:id="rId30" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{14C69936-B6FA-4A9F-B4A5-6BCBF3BBBBD0}"/>
-    <hyperlink ref="F32" r:id="rId31" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{A24A7622-65EC-4401-99B0-ED9EB0A1F1AE}"/>
-    <hyperlink ref="F33" r:id="rId32" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{E2E4D92C-E05F-4504-8A73-B336060306CE}"/>
-    <hyperlink ref="F34" r:id="rId33" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{AF52CC0F-DECC-4C56-A009-8A782531C400}"/>
-    <hyperlink ref="F35" r:id="rId34" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{D0080A01-B954-498E-940C-4138BA45045B}"/>
-    <hyperlink ref="F36" r:id="rId35" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{0622E069-2AF8-471F-8DE4-D7E14F89651E}"/>
-    <hyperlink ref="F37" r:id="rId36" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{6508C207-12E2-41FD-8AE9-838112216105}"/>
-    <hyperlink ref="F38" r:id="rId37" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{C85EC890-24A1-49F1-9227-FD9E5A9CAC27}"/>
-    <hyperlink ref="F39" r:id="rId38" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{6822B912-692F-4E94-AE6A-E35212D81706}"/>
-    <hyperlink ref="F40" r:id="rId39" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{01A79C35-C9C8-4E49-97FF-DB329C41D9A4}"/>
-    <hyperlink ref="F41" r:id="rId40" location="cite_note-47" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-47" xr:uid="{869F2106-8762-4FB3-951D-1548A037E364}"/>
-    <hyperlink ref="F42" r:id="rId41" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{86B84433-3F49-49D4-B547-527B441B808F}"/>
-    <hyperlink ref="F43" r:id="rId42" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{C70E4434-FAAC-468E-AD65-375F37C5F988}"/>
-    <hyperlink ref="F44" r:id="rId43" location="cite_note-CS100-48" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS100-48" xr:uid="{548ADF1A-60E2-474D-8ACE-73CC06035412}"/>
-    <hyperlink ref="F45" r:id="rId44" location="cite_note-CS300-49" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS300-49" xr:uid="{D1FCD834-DF72-4795-95B9-CCCAB596B8CC}"/>
-    <hyperlink ref="F46" r:id="rId45" location="cite_note-50" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-50" xr:uid="{B8764EBC-9951-4508-B054-5B4F5B18EBB7}"/>
-    <hyperlink ref="F47" r:id="rId46" location="cite_note-51" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-51" xr:uid="{ACDBA603-5072-45F9-9A85-0AC65508B4DA}"/>
-    <hyperlink ref="F48" r:id="rId47" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{40895A67-1967-42DF-A7D8-F679C0858D89}"/>
-    <hyperlink ref="F49" r:id="rId48" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{5B7D75D2-CE27-4AC2-9360-40EF50F5F0D8}"/>
-    <hyperlink ref="F50" r:id="rId49" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{3FD43EA7-8015-42C4-B75F-F04801CCFA66}"/>
-    <hyperlink ref="F51" r:id="rId50" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{A5F60B4B-9524-4DBC-AF08-295D985B51DC}"/>
-    <hyperlink ref="F52" r:id="rId51" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{DFA5F016-4727-4195-8110-7CDFAA4B700C}"/>
-    <hyperlink ref="F53" r:id="rId52" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{874218F9-B842-4A92-B66E-37E44D8AB40F}"/>
-    <hyperlink ref="F54" r:id="rId53" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{01FE1B5C-BD58-418D-BFF9-BB452F71E171}"/>
-    <hyperlink ref="F55" r:id="rId54" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{1AF17A32-0A88-45A8-9D43-20C208FC65EE}"/>
-    <hyperlink ref="F56" r:id="rId55" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{470DDC83-6084-4601-AB08-92D87A1C7B86}"/>
-    <hyperlink ref="F57" r:id="rId56" location="cite_note-53" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-53" xr:uid="{8034A07C-9682-4975-925E-9E827D277365}"/>
-    <hyperlink ref="F58" r:id="rId57" location="cite_note-Saab340-39" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab340-39" xr:uid="{C63C370B-24CB-4BCD-AEA7-5E573DC7715D}"/>
-    <hyperlink ref="F59" r:id="rId58" location="cite_note-Saab2000-40" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab2000-40" xr:uid="{8C50CECD-3B92-4435-A6EE-486A7AD882E6}"/>
-    <hyperlink ref="F60" r:id="rId59" location="cite_note-SSJ100-54" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SSJ100-54" xr:uid="{C06727E9-BB49-46E4-A3FB-F7205EF545DC}"/>
-    <hyperlink ref="F61" r:id="rId60" location="cite_note-MA700-41" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-MA700-41" xr:uid="{93B6DE82-6116-4FA1-A650-713B33D16FE5}"/>
-    <hyperlink ref="F62" r:id="rId61" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{8A94ADAE-F885-4323-B865-D347F085408C}"/>
-    <hyperlink ref="F63" r:id="rId62" location="cite_note-LH150225-26" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH150225-26" xr:uid="{B34F0767-49A8-4596-8DF9-155BADB7241B}"/>
-    <hyperlink ref="F64" r:id="rId63" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{0470DA50-F23F-4F88-88ED-284617A6B0FC}"/>
-    <hyperlink ref="F65" r:id="rId64" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{D60E01EF-D7FF-475F-A78D-64B9323B282E}"/>
-    <hyperlink ref="F66" r:id="rId65" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{C68C1872-DA70-473C-A544-C9378FCE53CA}"/>
-    <hyperlink ref="F67" r:id="rId66" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{FCDEC4ED-016F-4C5F-B93E-429E12CD2D44}"/>
-    <hyperlink ref="F68" r:id="rId67" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{D02D665A-2460-4D94-82F9-9FAC88C255A4}"/>
-    <hyperlink ref="F69" r:id="rId68" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{49C36A85-0FF1-47F3-AF21-3AEDB09AE7C2}"/>
-    <hyperlink ref="F70" r:id="rId69" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{7E68E7F6-CA9B-4C6C-921F-E725220AB9A8}"/>
-    <hyperlink ref="F71" r:id="rId70" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{991F9A18-0AB0-4759-A50A-FF11F7E1F0D2}"/>
-    <hyperlink ref="F72" r:id="rId71" location="cite_note-LH150225-26" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH150225-26" xr:uid="{EA9D5875-740D-4414-8004-4B29397F9D0D}"/>
-    <hyperlink ref="F73" r:id="rId72" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{BD4C08BA-80F6-4559-AE14-F2AA52C33F11}"/>
-    <hyperlink ref="F74" r:id="rId73" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{18BD2AE0-F607-4C80-ADFE-5A67F752D3F4}"/>
-    <hyperlink ref="F75" r:id="rId74" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{18DEF94A-A35B-4454-8761-4BA9F8946ED0}"/>
-    <hyperlink ref="F76" r:id="rId75" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{63618A56-59CE-4AB0-BB0B-30E37FE0D5A9}"/>
-    <hyperlink ref="F77" r:id="rId76" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{DB5E4839-5FD9-4363-877D-2658B78CE8F7}"/>
-    <hyperlink ref="F78" r:id="rId77" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{AEC3860F-0455-46AD-99BA-F5EE54069266}"/>
-    <hyperlink ref="F79" r:id="rId78" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{63B4BEDD-19C1-4271-991B-73C03A34A7B0}"/>
-    <hyperlink ref="F80" r:id="rId79" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{20B8EA91-1221-4F7F-9915-DF1A216C9EC9}"/>
-    <hyperlink ref="F81" r:id="rId80" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{F7DD1164-FCE0-488E-8241-42EF2848A866}"/>
-    <hyperlink ref="F82" r:id="rId81" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{54551802-0D1C-483D-9E8A-819EAC01C01A}"/>
-    <hyperlink ref="F83" r:id="rId82" location="cite_note-CS100-48" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS100-48" xr:uid="{C81FBBDA-E320-4F6F-9F4E-6193F73DB969}"/>
-    <hyperlink ref="F84" r:id="rId83" location="cite_note-CS300-49" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS300-49" xr:uid="{95C00AF8-FDE4-40E6-87BC-E93C6BD43A28}"/>
-    <hyperlink ref="F85" r:id="rId84" location="cite_note-LH150225-26" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH150225-26" xr:uid="{9317BAFB-1B63-485C-85FA-A7B38E1C2755}"/>
-    <hyperlink ref="F86" r:id="rId85" location="cite_note-57" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-57" xr:uid="{103F6149-8269-4CA3-B5B0-4C63A9E1708F}"/>
-    <hyperlink ref="F87" r:id="rId86" location="cite_note-SEI200805-59" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SEI200805-59" xr:uid="{3E278D71-6F8F-4233-94FA-EB94B110712C}"/>
-    <hyperlink ref="F88" r:id="rId87" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{8C87B78F-9A24-440C-B799-BAEA69205131}"/>
-    <hyperlink ref="F89" r:id="rId88" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{6FBBE628-15AD-4744-8989-A1E00222C596}"/>
-    <hyperlink ref="F90" r:id="rId89" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{873821DF-E5EB-4B84-85DC-6C44E94C8A9E}"/>
-    <hyperlink ref="F91" r:id="rId90" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{CA0F22AF-76FB-4127-B5F8-C8BC7F1AC64F}"/>
-    <hyperlink ref="F92" r:id="rId91" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{D0CE15F1-2BAA-4000-B335-D83F968533CD}"/>
-    <hyperlink ref="F93" r:id="rId92" location="cite_note-LN141208-63" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN141208-63" xr:uid="{6B8B2265-1C9A-46A9-8441-E13773D9E448}"/>
-    <hyperlink ref="F94" r:id="rId93" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{678AAF77-287F-4455-BFF6-38C570FDE611}"/>
-    <hyperlink ref="F95" r:id="rId94" location="cite_note-SEI200805-59" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SEI200805-59" xr:uid="{9F0968FA-9269-4ACA-89D4-1014B7036A2C}"/>
-    <hyperlink ref="F96" r:id="rId95" location="cite_note-747-8_perf-64" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-747-8_perf-64" xr:uid="{389DF463-6436-40C7-B111-2464288F9A12}"/>
-    <hyperlink ref="F97" r:id="rId96" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{AD08D1D9-6761-466A-8156-82F9DF624DFA}"/>
-    <hyperlink ref="F98" r:id="rId97" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{21BBC686-24E8-465F-8BF4-A6EA7204D113}"/>
-    <hyperlink ref="F99" r:id="rId98" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{44CD89F3-3B49-4751-8499-42CDC9EBE386}"/>
-    <hyperlink ref="F100" r:id="rId99" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{D8F8EE7D-F20E-4997-BF32-08B3D9AB4822}"/>
-    <hyperlink ref="F101" r:id="rId100" location="cite_note-SEI200805-59" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SEI200805-59" xr:uid="{10170A84-5360-4788-A734-7DEAFC2075A0}"/>
-    <hyperlink ref="F102" r:id="rId101" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{64B29FAE-69D8-435E-9BFD-F55BAC5D2EC9}"/>
-    <hyperlink ref="F103" r:id="rId102" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{BAC962F4-1722-4B37-8343-5AC713FB60CE}"/>
-    <hyperlink ref="F104" r:id="rId103" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{D9B53E30-6585-4B9B-9079-52763501E5C5}"/>
-    <hyperlink ref="F105" r:id="rId104" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{E0589FA9-26A1-4B54-BB4E-7234A5F54390}"/>
-    <hyperlink ref="F106" r:id="rId105" location="cite_note-WSJ100812-44" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-WSJ100812-44" xr:uid="{362A0799-E3C2-4835-BDF7-A9CF2C0450EB}"/>
-    <hyperlink ref="F107" r:id="rId106" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{6F32ECA8-ED9F-46B9-8AEE-0F77C7BC7629}"/>
-    <hyperlink ref="F108" r:id="rId107" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{8A29B04F-5EFB-4D5D-B87F-0C044CCEF5C4}"/>
-    <hyperlink ref="F109" r:id="rId108" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{7CCD92FB-E6DC-41DB-8CE2-038E418DF4F8}"/>
-    <hyperlink ref="F110" r:id="rId109" location="cite_note-LN141208-63" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN141208-63" xr:uid="{8AAACF6F-044A-46B3-BF2C-507AEDEEB4CF}"/>
-    <hyperlink ref="F111" r:id="rId110" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{25D8F0CC-E0BF-4922-8F11-EE6B83CD333A}"/>
-    <hyperlink ref="F112" r:id="rId111" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{BF31D351-E059-4900-A05F-27E1E5AD0F2D}"/>
-    <hyperlink ref="F113" r:id="rId112" location="cite_note-Flight4jun2018-67" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Flight4jun2018-67" xr:uid="{506911F4-2226-4484-8363-B04C585F8D83}"/>
-    <hyperlink ref="F114" r:id="rId113" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{D832A698-5337-4ED4-87BA-7BD44F57B861}"/>
-    <hyperlink ref="F115" r:id="rId114" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{7A134BF1-39ED-4116-9FA0-C44A64972415}"/>
-    <hyperlink ref="F116" r:id="rId115" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{BF349D02-046E-470F-8DD4-2BE0D084BC3E}"/>
-    <hyperlink ref="F117" r:id="rId116" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{4733B94D-0858-4547-852B-24B5C728BA1C}"/>
-    <hyperlink ref="F118" r:id="rId117" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{9DE35707-08D5-4706-A9E0-87CC1BFA52F7}"/>
-    <hyperlink ref="F119" r:id="rId118" location="cite_note-AA150608-70" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA150608-70" xr:uid="{3835B0C1-EB8A-4572-BDA7-857ABF029EFA}"/>
-    <hyperlink ref="F120" r:id="rId119" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{85280D7F-F9DF-4708-B1EE-93C9CD4F32CB}"/>
-    <hyperlink ref="F121" r:id="rId120" location="cite_note-72" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-72" xr:uid="{44E60989-DAA8-47DD-88CB-AA8DD5AA957E}"/>
-    <hyperlink ref="F122" r:id="rId121" location="cite_note-73" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-73" xr:uid="{66567BD7-61A1-4D2D-A65B-6AF7167A9DD6}"/>
-    <hyperlink ref="F123" r:id="rId122" location="cite_note-747-8_perf-64" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-747-8_perf-64" xr:uid="{D1C35E22-D76C-4ACB-8327-C251EF21DA36}"/>
-    <hyperlink ref="F124" r:id="rId123" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{22F09B1E-BF55-4A02-AE5F-47C842BD089E}"/>
-    <hyperlink ref="F125" r:id="rId124" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{203CB7E1-CDE3-4A00-A117-127EE625A539}"/>
-    <hyperlink ref="F126" r:id="rId125" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{819539C7-9808-4BEF-A8F4-7C968CBEB1FA}"/>
-    <hyperlink ref="F127" r:id="rId126" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{949A346F-952F-4566-A105-BFE82FB3C0D6}"/>
-    <hyperlink ref="F128" r:id="rId127" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{3CDDB995-41B3-447F-9E76-1496052C567A}"/>
-    <hyperlink ref="F129" r:id="rId128" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{07B0E387-7B60-4F74-962A-1F5985266790}"/>
-    <hyperlink ref="F130" r:id="rId129" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{0D2F373A-B80C-499D-AEBA-8882490751C2}"/>
-    <hyperlink ref="F131" r:id="rId130" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{CFE87737-028A-469F-B5F1-77B121151FE0}"/>
-    <hyperlink ref="F132" r:id="rId131" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{53F2C045-DDB2-4701-8766-F6763C95A967}"/>
-    <hyperlink ref="F133" r:id="rId132" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{B951758A-849E-46C1-8535-0EE10AF74828}"/>
-    <hyperlink ref="F134" r:id="rId133" location="cite_note-AA150608-70" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA150608-70" xr:uid="{943D46F8-A717-45F9-8324-91AE4C90CED9}"/>
+    <hyperlink ref="F34" r:id="rId1" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{35290CB9-C0F6-4F62-99EA-4F36EB926BC5}"/>
+    <hyperlink ref="F37" r:id="rId2" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{B51156E2-12D2-4291-8D81-4108E9C743E7}"/>
+    <hyperlink ref="F38" r:id="rId3" location="cite_note-ATR-31" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-ATR-31" xr:uid="{31D7FAC2-DAC8-4D5B-8A49-C39D08D533DB}"/>
+    <hyperlink ref="F39" r:id="rId4" location="cite_note-ATR-31" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-ATR-31" xr:uid="{C51848D7-1C08-4C2F-810A-B111BFE874EA}"/>
+    <hyperlink ref="F40" r:id="rId5" location="cite_note-32" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-32" xr:uid="{80A26FD9-53D0-467C-9AA7-4E8657EA77B6}"/>
+    <hyperlink ref="F99" r:id="rId6" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{0C029BB2-5761-4F3E-9D9F-2A077A032783}"/>
+    <hyperlink ref="F102" r:id="rId7" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{DE6F15EB-B962-4B7A-BD0B-3EA9CB3ED71A}"/>
+    <hyperlink ref="F104" r:id="rId8" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{C2E19107-41FD-47E7-B805-04A02229DD63}"/>
+    <hyperlink ref="F106" r:id="rId9" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{46DD9597-6E28-4E33-A6BF-B630DDAEFAC7}"/>
+    <hyperlink ref="F108" r:id="rId10" location="cite_note-34" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-34" xr:uid="{22615CBC-EB60-4EED-9BF1-8A6722BFD41A}"/>
+    <hyperlink ref="F110" r:id="rId11" location="cite_note-35" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-35" xr:uid="{5CF2AE58-6BDE-49E0-8D61-22D652DC0F4D}"/>
+    <hyperlink ref="F111" r:id="rId12" location="cite_note-36" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-36" xr:uid="{8749B297-7570-42B3-97A0-41F1553A7DA9}"/>
+    <hyperlink ref="F113" r:id="rId13" location="cite_note-37" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-37" xr:uid="{DF5EFB29-9A69-4EB9-87B2-134C6FA1ED76}"/>
+    <hyperlink ref="F122" r:id="rId14" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{8725B0CB-A7AB-4CE4-AC68-004272BEE1B6}"/>
+    <hyperlink ref="F124" r:id="rId15" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{483EF2CC-3AE6-4197-A235-C947F52DE240}"/>
+    <hyperlink ref="F130" r:id="rId16" location="cite_note-Saab340-39" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab340-39" xr:uid="{4510703B-E961-4263-916A-5C394983DC74}"/>
+    <hyperlink ref="F128" r:id="rId17" location="cite_note-Saab2000-40" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab2000-40" xr:uid="{EEF8DE18-903E-4565-8040-93049D786B4B}"/>
+    <hyperlink ref="F133" r:id="rId18" location="cite_note-MA700-41" display="cite_note-MA700-41" xr:uid="{BA64F713-7AA8-4158-87E7-AED0065214CF}"/>
+    <hyperlink ref="F10" r:id="rId19" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{5B3BC4A8-EAE0-4D92-B78F-2899843C388A}"/>
+    <hyperlink ref="F11" r:id="rId20" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{DF32830A-1369-4393-8707-B0B09E2E50C1}"/>
+    <hyperlink ref="F15" r:id="rId21" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{D779BAE3-3835-4FD1-9E0B-7E178B7BF247}"/>
+    <hyperlink ref="F17" r:id="rId22" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{E8167844-281E-4DF0-A089-D84B0C63DF83}"/>
+    <hyperlink ref="F32" r:id="rId23" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{3659CE2E-6C6D-4909-A3BB-8E03B58CCF99}"/>
+    <hyperlink ref="F35" r:id="rId24" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{D457DAE4-2F73-4B9D-94DC-4CEF51EB66F1}"/>
+    <hyperlink ref="F50" r:id="rId25" location="cite_note-WSJ100812-44" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-WSJ100812-44" xr:uid="{4590A2E3-A4C8-4B50-AD52-EE1F881D84A3}"/>
+    <hyperlink ref="F51" r:id="rId26" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{8F212DEC-C400-4AA8-A012-40E1BD5D92A7}"/>
+    <hyperlink ref="F53" r:id="rId27" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{F89BDE35-C5D6-416A-B1F2-EF180763C663}"/>
+    <hyperlink ref="F41" r:id="rId28" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{8E86B1B3-D36D-40B9-937D-0CF115E357A7}"/>
+    <hyperlink ref="F42" r:id="rId29" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{1F6811E8-D421-449F-8860-74F342509CA7}"/>
+    <hyperlink ref="F56" r:id="rId30" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{14C69936-B6FA-4A9F-B4A5-6BCBF3BBBBD0}"/>
+    <hyperlink ref="F43" r:id="rId31" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{A24A7622-65EC-4401-99B0-ED9EB0A1F1AE}"/>
+    <hyperlink ref="F60" r:id="rId32" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{E2E4D92C-E05F-4504-8A73-B336060306CE}"/>
+    <hyperlink ref="F44" r:id="rId33" location="cite_note-AI160205-43" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AI160205-43" xr:uid="{AF52CC0F-DECC-4C56-A009-8A782531C400}"/>
+    <hyperlink ref="F68" r:id="rId34" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{D0080A01-B954-498E-940C-4138BA45045B}"/>
+    <hyperlink ref="F72" r:id="rId35" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{0622E069-2AF8-471F-8DE4-D7E14F89651E}"/>
+    <hyperlink ref="F100" r:id="rId36" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{6508C207-12E2-41FD-8AE9-838112216105}"/>
+    <hyperlink ref="F103" r:id="rId37" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{C85EC890-24A1-49F1-9227-FD9E5A9CAC27}"/>
+    <hyperlink ref="F105" r:id="rId38" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{6822B912-692F-4E94-AE6A-E35212D81706}"/>
+    <hyperlink ref="F107" r:id="rId39" location="cite_note-AirComOct2009-33" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComOct2009-33" xr:uid="{01A79C35-C9C8-4E49-97FF-DB329C41D9A4}"/>
+    <hyperlink ref="F101" r:id="rId40" location="cite_note-47" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-47" xr:uid="{869F2106-8762-4FB3-951D-1548A037E364}"/>
+    <hyperlink ref="F2" r:id="rId41" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{86B84433-3F49-49D4-B547-527B441B808F}"/>
+    <hyperlink ref="F3" r:id="rId42" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{C70E4434-FAAC-468E-AD65-375F37C5F988}"/>
+    <hyperlink ref="F4" r:id="rId43" location="cite_note-CS100-48" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS100-48" xr:uid="{548ADF1A-60E2-474D-8ACE-73CC06035412}"/>
+    <hyperlink ref="F6" r:id="rId44" location="cite_note-CS300-49" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS300-49" xr:uid="{D1FCD834-DF72-4795-95B9-CCCAB596B8CC}"/>
+    <hyperlink ref="F109" r:id="rId45" location="cite_note-50" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-50" xr:uid="{B8764EBC-9951-4508-B054-5B4F5B18EBB7}"/>
+    <hyperlink ref="F112" r:id="rId46" location="cite_note-51" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-51" xr:uid="{ACDBA603-5072-45F9-9A85-0AC65508B4DA}"/>
+    <hyperlink ref="F114" r:id="rId47" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{40895A67-1967-42DF-A7D8-F679C0858D89}"/>
+    <hyperlink ref="F115" r:id="rId48" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{5B7D75D2-CE27-4AC2-9360-40EF50F5F0D8}"/>
+    <hyperlink ref="F116" r:id="rId49" location="cite_note-LH140113-42" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140113-42" xr:uid="{3FD43EA7-8015-42C4-B75F-F04801CCFA66}"/>
+    <hyperlink ref="F117" r:id="rId50" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{A5F60B4B-9524-4DBC-AF08-295D985B51DC}"/>
+    <hyperlink ref="F118" r:id="rId51" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{DFA5F016-4727-4195-8110-7CDFAA4B700C}"/>
+    <hyperlink ref="F119" r:id="rId52" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{874218F9-B842-4A92-B66E-37E44D8AB40F}"/>
+    <hyperlink ref="F120" r:id="rId53" location="cite_note-AirComjun2009-52" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComjun2009-52" xr:uid="{01FE1B5C-BD58-418D-BFF9-BB452F71E171}"/>
+    <hyperlink ref="F121" r:id="rId54" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{1AF17A32-0A88-45A8-9D43-20C208FC65EE}"/>
+    <hyperlink ref="F123" r:id="rId55" location="cite_note-AirComDec2008-38" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AirComDec2008-38" xr:uid="{470DDC83-6084-4601-AB08-92D87A1C7B86}"/>
+    <hyperlink ref="F126" r:id="rId56" location="cite_note-53" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-53" xr:uid="{8034A07C-9682-4975-925E-9E827D277365}"/>
+    <hyperlink ref="F131" r:id="rId57" location="cite_note-Saab340-39" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab340-39" xr:uid="{C63C370B-24CB-4BCD-AEA7-5E573DC7715D}"/>
+    <hyperlink ref="F129" r:id="rId58" location="cite_note-Saab2000-40" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Saab2000-40" xr:uid="{8C50CECD-3B92-4435-A6EE-486A7AD882E6}"/>
+    <hyperlink ref="F132" r:id="rId59" location="cite_note-SSJ100-54" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SSJ100-54" xr:uid="{C06727E9-BB49-46E4-A3FB-F7205EF545DC}"/>
+    <hyperlink ref="F134" r:id="rId60" location="cite_note-MA700-41" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-MA700-41" xr:uid="{93B6DE82-6116-4FA1-A650-713B33D16FE5}"/>
+    <hyperlink ref="F9" r:id="rId61" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{8A94ADAE-F885-4323-B865-D347F085408C}"/>
+    <hyperlink ref="F12" r:id="rId62" location="cite_note-LH150225-26" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH150225-26" xr:uid="{B34F0767-49A8-4596-8DF9-155BADB7241B}"/>
+    <hyperlink ref="F13" r:id="rId63" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{0470DA50-F23F-4F88-88ED-284617A6B0FC}"/>
+    <hyperlink ref="F16" r:id="rId64" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{D60E01EF-D7FF-475F-A78D-64B9323B282E}"/>
+    <hyperlink ref="F19" r:id="rId65" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{C68C1872-DA70-473C-A544-C9378FCE53CA}"/>
+    <hyperlink ref="F33" r:id="rId66" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{FCDEC4ED-016F-4C5F-B93E-429E12CD2D44}"/>
+    <hyperlink ref="F36" r:id="rId67" location="cite_note-AN-148/158-30" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN-148/158-30" xr:uid="{D02D665A-2460-4D94-82F9-9FAC88C255A4}"/>
+    <hyperlink ref="F52" r:id="rId68" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{49C36A85-0FF1-47F3-AF21-3AEDB09AE7C2}"/>
+    <hyperlink ref="F54" r:id="rId69" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{7E68E7F6-CA9B-4C6C-921F-E725220AB9A8}"/>
+    <hyperlink ref="F55" r:id="rId70" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{991F9A18-0AB0-4759-A50A-FF11F7E1F0D2}"/>
+    <hyperlink ref="F45" r:id="rId71" location="cite_note-LH150225-26" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH150225-26" xr:uid="{EA9D5875-740D-4414-8004-4B29397F9D0D}"/>
+    <hyperlink ref="F57" r:id="rId72" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{BD4C08BA-80F6-4559-AE14-F2AA52C33F11}"/>
+    <hyperlink ref="F58" r:id="rId73" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{18BD2AE0-F607-4C80-ADFE-5A67F752D3F4}"/>
+    <hyperlink ref="F59" r:id="rId74" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{18DEF94A-A35B-4454-8761-4BA9F8946ED0}"/>
+    <hyperlink ref="F46" r:id="rId75" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{63618A56-59CE-4AB0-BB0B-30E37FE0D5A9}"/>
+    <hyperlink ref="F61" r:id="rId76" location="cite_note-737_perf-45" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737_perf-45" xr:uid="{DB5E4839-5FD9-4363-877D-2658B78CE8F7}"/>
+    <hyperlink ref="F62" r:id="rId77" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{AEC3860F-0455-46AD-99BA-F5EE54069266}"/>
+    <hyperlink ref="F48" r:id="rId78" location="cite_note-737max-56" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-737max-56" xr:uid="{63B4BEDD-19C1-4271-991B-73C03A34A7B0}"/>
+    <hyperlink ref="F69" r:id="rId79" location="cite_note-AC200508-55" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AC200508-55" xr:uid="{20B8EA91-1221-4F7F-9915-DF1A216C9EC9}"/>
+    <hyperlink ref="F70" r:id="rId80" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{F7DD1164-FCE0-488E-8241-42EF2848A866}"/>
+    <hyperlink ref="F73" r:id="rId81" location="cite_note-757_passenger.pdf-46" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-757_passenger.pdf-46" xr:uid="{54551802-0D1C-483D-9E8A-819EAC01C01A}"/>
+    <hyperlink ref="F5" r:id="rId82" location="cite_note-CS100-48" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS100-48" xr:uid="{C81FBBDA-E320-4F6F-9F4E-6193F73DB969}"/>
+    <hyperlink ref="F7" r:id="rId83" location="cite_note-CS300-49" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-CS300-49" xr:uid="{95C00AF8-FDE4-40E6-87BC-E93C6BD43A28}"/>
+    <hyperlink ref="F8" r:id="rId84" location="cite_note-LH150225-26" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH150225-26" xr:uid="{9317BAFB-1B63-485C-85FA-A7B38E1C2755}"/>
+    <hyperlink ref="F127" r:id="rId85" location="cite_note-57" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-57" xr:uid="{103F6149-8269-4CA3-B5B0-4C63A9E1708F}"/>
+    <hyperlink ref="F14" r:id="rId86" location="cite_note-SEI200805-59" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SEI200805-59" xr:uid="{3E278D71-6F8F-4233-94FA-EB94B110712C}"/>
+    <hyperlink ref="F18" r:id="rId87" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{8C87B78F-9A24-440C-B799-BAEA69205131}"/>
+    <hyperlink ref="F20" r:id="rId88" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{6FBBE628-15AD-4744-8989-A1E00222C596}"/>
+    <hyperlink ref="F22" r:id="rId89" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{873821DF-E5EB-4B84-85DC-6C44E94C8A9E}"/>
+    <hyperlink ref="F24" r:id="rId90" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{CA0F22AF-76FB-4127-B5F8-C8BC7F1AC64F}"/>
+    <hyperlink ref="F26" r:id="rId91" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{D0CE15F1-2BAA-4000-B335-D83F968533CD}"/>
+    <hyperlink ref="F47" r:id="rId92" location="cite_note-LN141208-63" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN141208-63" xr:uid="{6B8B2265-1C9A-46A9-8441-E13773D9E448}"/>
+    <hyperlink ref="F49" r:id="rId93" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{678AAF77-287F-4455-BFF6-38C570FDE611}"/>
+    <hyperlink ref="F63" r:id="rId94" location="cite_note-SEI200805-59" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SEI200805-59" xr:uid="{9F0968FA-9269-4ACA-89D4-1014B7036A2C}"/>
+    <hyperlink ref="F65" r:id="rId95" location="cite_note-747-8_perf-64" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-747-8_perf-64" xr:uid="{389DF463-6436-40C7-B111-2464288F9A12}"/>
+    <hyperlink ref="F71" r:id="rId96" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{AD08D1D9-6761-466A-8156-82F9DF624DFA}"/>
+    <hyperlink ref="F74" r:id="rId97" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{21BBC686-24E8-465F-8BF4-A6EA7204D113}"/>
+    <hyperlink ref="F75" r:id="rId98" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{44CD89F3-3B49-4751-8499-42CDC9EBE386}"/>
+    <hyperlink ref="F76" r:id="rId99" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{D8F8EE7D-F20E-4997-BF32-08B3D9AB4822}"/>
+    <hyperlink ref="F77" r:id="rId100" location="cite_note-SEI200805-59" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-SEI200805-59" xr:uid="{10170A84-5360-4788-A734-7DEAFC2075A0}"/>
+    <hyperlink ref="F78" r:id="rId101" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{64B29FAE-69D8-435E-9BFD-F55BAC5D2EC9}"/>
+    <hyperlink ref="F79" r:id="rId102" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{BAC962F4-1722-4B37-8343-5AC713FB60CE}"/>
+    <hyperlink ref="F80" r:id="rId103" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{D9B53E30-6585-4B9B-9079-52763501E5C5}"/>
+    <hyperlink ref="F81" r:id="rId104" location="cite_note-767_perf-65" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-767_perf-65" xr:uid="{E0589FA9-26A1-4B54-BB4E-7234A5F54390}"/>
+    <hyperlink ref="F82" r:id="rId105" location="cite_note-WSJ100812-44" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-WSJ100812-44" xr:uid="{362A0799-E3C2-4835-BDF7-A9CF2C0450EB}"/>
+    <hyperlink ref="F83" r:id="rId106" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{6F32ECA8-ED9F-46B9-8AEE-0F77C7BC7629}"/>
+    <hyperlink ref="F84" r:id="rId107" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{8A29B04F-5EFB-4D5D-B87F-0C044CCEF5C4}"/>
+    <hyperlink ref="F88" r:id="rId108" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{7CCD92FB-E6DC-41DB-8CE2-038E418DF4F8}"/>
+    <hyperlink ref="F92" r:id="rId109" location="cite_note-LN141208-63" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN141208-63" xr:uid="{8AAACF6F-044A-46B3-BF2C-507AEDEEB4CF}"/>
+    <hyperlink ref="F93" r:id="rId110" location="cite_note-LN150225-60" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LN150225-60" xr:uid="{25D8F0CC-E0BF-4922-8F11-EE6B83CD333A}"/>
+    <hyperlink ref="F95" r:id="rId111" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{BF31D351-E059-4900-A05F-27E1E5AD0F2D}"/>
+    <hyperlink ref="F125" r:id="rId112" location="cite_note-Flight4jun2018-67" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-Flight4jun2018-67" xr:uid="{506911F4-2226-4484-8363-B04C585F8D83}"/>
+    <hyperlink ref="F21" r:id="rId113" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{D832A698-5337-4ED4-87BA-7BD44F57B861}"/>
+    <hyperlink ref="F23" r:id="rId114" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{7A134BF1-39ED-4116-9FA0-C44A64972415}"/>
+    <hyperlink ref="F25" r:id="rId115" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{BF349D02-046E-470F-8DD4-2BE0D084BC3E}"/>
+    <hyperlink ref="F27" r:id="rId116" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{4733B94D-0858-4547-852B-24B5C728BA1C}"/>
+    <hyperlink ref="F28" r:id="rId117" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{9DE35707-08D5-4706-A9E0-87CC1BFA52F7}"/>
+    <hyperlink ref="F29" r:id="rId118" location="cite_note-AA150608-70" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA150608-70" xr:uid="{3835B0C1-EB8A-4572-BDA7-857ABF029EFA}"/>
+    <hyperlink ref="F30" r:id="rId119" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{85280D7F-F9DF-4708-B1EE-93C9CD4F32CB}"/>
+    <hyperlink ref="F31" r:id="rId120" location="cite_note-72" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-72" xr:uid="{44E60989-DAA8-47DD-88CB-AA8DD5AA957E}"/>
+    <hyperlink ref="F64" r:id="rId121" location="cite_note-73" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-73" xr:uid="{66567BD7-61A1-4D2D-A65B-6AF7167A9DD6}"/>
+    <hyperlink ref="F66" r:id="rId122" location="cite_note-747-8_perf-64" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-747-8_perf-64" xr:uid="{D1C35E22-D76C-4ACB-8327-C251EF21DA36}"/>
+    <hyperlink ref="F67" r:id="rId123" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{22F09B1E-BF55-4A02-AE5F-47C842BD089E}"/>
+    <hyperlink ref="F85" r:id="rId124" location="cite_note-AA101208-61" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA101208-61" xr:uid="{203CB7E1-CDE3-4A00-A117-127EE625A539}"/>
+    <hyperlink ref="F86" r:id="rId125" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{819539C7-9808-4BEF-A8F4-7C968CBEB1FA}"/>
+    <hyperlink ref="F87" r:id="rId126" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{949A346F-952F-4566-A105-BFE82FB3C0D6}"/>
+    <hyperlink ref="F89" r:id="rId127" location="cite_note-777_perf-66" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-777_perf-66" xr:uid="{3CDDB995-41B3-447F-9E76-1496052C567A}"/>
+    <hyperlink ref="F90" r:id="rId128" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{07B0E387-7B60-4F74-962A-1F5985266790}"/>
+    <hyperlink ref="F91" r:id="rId129" location="cite_note-LH140203-71" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-LH140203-71" xr:uid="{0D2F373A-B80C-499D-AEBA-8882490751C2}"/>
+    <hyperlink ref="F94" r:id="rId130" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{CFE87737-028A-469F-B5F1-77B121151FE0}"/>
+    <hyperlink ref="F96" r:id="rId131" location="cite_note-AN160317-69" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN160317-69" xr:uid="{53F2C045-DDB2-4701-8766-F6763C95A967}"/>
+    <hyperlink ref="F97" r:id="rId132" location="cite_note-AN141125-62" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AN141125-62" xr:uid="{B951758A-849E-46C1-8535-0EE10AF74828}"/>
+    <hyperlink ref="F98" r:id="rId133" location="cite_note-AA150608-70" display="https://en.wikipedia.org/wiki/Fuel_economy_in_aircraft - cite_note-AA150608-70" xr:uid="{943D46F8-A717-45F9-8324-91AE4C90CED9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId134"/>
